--- a/biology/Botanique/Forêts_de_Bretagne/Forêts_de_Bretagne.xlsx
+++ b/biology/Botanique/Forêts_de_Bretagne/Forêts_de_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Bretagne</t>
+          <t>Forêts_de_Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts de Bretagne sont en recul depuis l'âge du fer[1] du fait des défrichements qui ont eu lieu depuis lors. La superficie forestière de la Bretagne historique est donc moindre que celle d'autres régions de France, notamment dans l'est du pays et on ne trouve pas de très grandes forêts : la plus importante, la forêt de Paimpont, avec 90 km², vient au vingtième rang des forêts françaises.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts de Bretagne sont en recul depuis l'âge du fer du fait des défrichements qui ont eu lieu depuis lors. La superficie forestière de la Bretagne historique est donc moindre que celle d'autres régions de France, notamment dans l'est du pays et on ne trouve pas de très grandes forêts : la plus importante, la forêt de Paimpont, avec 90 km², vient au vingtième rang des forêts françaises.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Bretagne</t>
+          <t>Forêts_de_Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Idées reçues sur la forêt gauloise</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée de la grande sylve centrale et primitive d'Armorique est un mythe qui « semble tout à fait rejoindre celle de l'immense forêt qui aurait couvert la Gaule tout entière[2] au moment de sa conquête par César[3] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de la grande sylve centrale et primitive d'Armorique est un mythe qui « semble tout à fait rejoindre celle de l'immense forêt qui aurait couvert la Gaule tout entière au moment de sa conquête par César ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Bretagne</t>
+          <t>Forêts_de_Bretagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du point de vue des superficies
-Leur superficie totale de 357 000 hectares (3570 km²) et 90 % de cette superficie relève de propriétés privées[4].
-Avec un taux de boisement moyen de 13 %, la région est peu forestière au regard du taux de boisement moyen du territoire métropolitain (29 %), tandis que les landes représentent 69 000 ha. L’essentiel des territoires (près de 75 %) est consacré à l'agriculture[5] et le bocage constitu le « fonds du paysage[6] » breton.
-Du point de vue des essences forestières
-Les forêts à dominante de feuillus ne représentant que 1,4 % des paysages et les forêts à dominante de résineux 2 %[7].
-Les essences feuillues représentent 62 % du volume sur pied de la région. Le chêne pédonculé est l’essence dominante (plus du quart du volume sur pied), devant le châtaignier (11 %), le hêtre (8 %), le bouleau et les saules. Les essences résineuses représentent 38 % du volume sur pied de la région.
-Le pin maritime est la première essence résineuse de la région et la deuxième essence régionale (14 %). L’épicéa de Sitka, essence de reboisement promue notamment au travers du Fonds Forestier National (FFN) est la deuxième essence résineuse (8 %), devant le pin
-sylvestre (5 %)[8].
+          <t>Du point de vue des superficies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur superficie totale de 357 000 hectares (3570 km²) et 90 % de cette superficie relève de propriétés privées.
+Avec un taux de boisement moyen de 13 %, la région est peu forestière au regard du taux de boisement moyen du territoire métropolitain (29 %), tandis que les landes représentent 69 000 ha. L’essentiel des territoires (près de 75 %) est consacré à l'agriculture et le bocage constitu le « fonds du paysage » breton.
 </t>
         </is>
       </c>
@@ -562,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Bretagne</t>
+          <t>Forêts_de_Bretagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Principales forêts bretonnes</t>
+          <t>Caractéristiques des forêts bretonnes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La forêt bretonne est morcelée. Seulement une dizaine de massifs forestiers dépassent 2 000 ha[9] (20 km²).
-Les principales forêts de Bretagne sont les suivantes :
+          <t>Du point de vue des essences forestières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts à dominante de feuillus ne représentant que 1,4 % des paysages et les forêts à dominante de résineux 2 %.
+Les essences feuillues représentent 62 % du volume sur pied de la région. Le chêne pédonculé est l’essence dominante (plus du quart du volume sur pied), devant le châtaignier (11 %), le hêtre (8 %), le bouleau et les saules. Les essences résineuses représentent 38 % du volume sur pied de la région.
+Le pin maritime est la première essence résineuse de la région et la deuxième essence régionale (14 %). L’épicéa de Sitka, essence de reboisement promue notamment au travers du Fonds Forestier National (FFN) est la deuxième essence résineuse (8 %), devant le pin
+sylvestre (5 %).
 </t>
         </is>
       </c>
@@ -594,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_de_Bretagne</t>
+          <t>Forêts_de_Bretagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +631,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Principales forêts bretonnes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt bretonne est morcelée. Seulement une dizaine de massifs forestiers dépassent 2 000 ha (20 km²).
+Les principales forêts de Bretagne sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêts_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statistiques et évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la base de données Corine Land Cover produite par le service de l’observation et des statistiques du Ministère de l'Écologie, du Développement durable et de l'Énergie, l’évolution entre 1990 et 2000 est la suivante[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données Corine Land Cover produite par le service de l’observation et des statistiques du Ministère de l'Écologie, du Développement durable et de l'Énergie, l’évolution entre 1990 et 2000 est la suivante :
 </t>
         </is>
       </c>
